--- a/Documentatie/Analyse/DatabaseV2.xlsx
+++ b/Documentatie/Analyse/DatabaseV2.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
-  <si>
-    <t>SubscribeMe V2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>&lt;---------&gt;</t>
   </si>
@@ -33,15 +30,9 @@
     <t>title</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -51,21 +42,12 @@
     <t>text</t>
   </si>
   <si>
-    <t>FAQ</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
     <t>answer</t>
   </si>
   <si>
-    <t>cat_id</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -81,15 +63,9 @@
     <t>email</t>
   </si>
   <si>
-    <t>Pages</t>
-  </si>
-  <si>
     <t>page</t>
   </si>
   <si>
-    <t>Ci_sessions</t>
-  </si>
-  <si>
     <t>session_id</t>
   </si>
   <si>
@@ -105,9 +81,6 @@
     <t>user_data</t>
   </si>
   <si>
-    <t>Courses</t>
-  </si>
-  <si>
     <t>short_name</t>
   </si>
   <si>
@@ -130,6 +103,42 @@
   </si>
   <si>
     <t>signups</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>SubscribeMe v2:</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>ci_sessions</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>&lt;--------------&gt;</t>
   </si>
 </sst>
 </file>
@@ -196,16 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,7 +215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,60 +225,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -297,13 +270,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -314,8 +287,104 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="4743450"/>
-          <a:ext cx="619125" cy="619125"/>
+          <a:off x="2028825" y="4743450"/>
+          <a:ext cx="628650" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Rechte verbindingslijn met pijl 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="5486400"/>
+          <a:ext cx="628650" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Rechte verbindingslijn met pijl 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="7419975"/>
+          <a:ext cx="733425" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -632,390 +701,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="C45" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
